--- a/Source/population (1).xlsx
+++ b/Source/population (1).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="http://synergy/sites/IMP/open_data_framework/Dataset Workbooks/Economic Development and Innovation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\575774\MyProject\RealEstateMarketTrends\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{E9BBCB30-4DEC-427B-B09E-36D701DDE4F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="19980" windowHeight="14190" activeTab="2" autoFilterDateGrouping="0"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="19980" windowHeight="14190" activeTab="2" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -22,9 +23,9 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Information!$A$1:$B$25</definedName>
     <definedName name="rows.csv?accessType_DOWNLOAD" localSheetId="2">Data!$A$1:$L$280</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="37" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -40,8 +41,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="rows" type="6" refreshedVersion="5" background="1" refreshOnLoad="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="rows" type="6" refreshedVersion="5" background="1" refreshOnLoad="1" saveData="1">
     <textPr prompt="0" codePage="437" sourceFile="https://data.iae.alberta.ca/api/views/gjg8-rv9y/rows.csv?accessType=DOWNLOAD" tab="0" comma="1">
       <textFields count="12">
         <textField type="MDY"/>
@@ -281,10 +282,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -486,7 +488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -547,6 +549,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -642,7 +645,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -655,7 +658,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Population.xlsx]Visualize!PivotTable5</c:name>
+    <c:name>[population (1).xlsx]Visualize!PivotTable5</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -864,6 +867,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EBBC-4362-A1BF-720F0E93C373}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1611,7 +1619,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1654,7 +1668,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1686,7 +1706,13 @@
       <mc:Choice Requires="tsle">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="When"/>
+            <xdr:cNvPr id="3" name="When">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -1744,7 +1770,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Colette.Michaud" refreshedDate="42303.340225347223" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="280">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Colette.Michaud" refreshedDate="42303.340225347223" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="280" xr:uid="{00000000-000A-0000-FFFF-FFFF25000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:L1048576" sheet="Data"/>
   </cacheSource>
@@ -6001,7 +6027,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
@@ -6749,12 +6775,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rows.csv?accessType=DOWNLOAD" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="rows.csv?accessType=DOWNLOAD" refreshOnLoad="1" connectionId="1" xr16:uid="{00000000-0016-0000-0200-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7022,7 +7051,7 @@
 </file>
 
 <file path=xl/timelineCaches/timelineCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<timelineCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" name="NativeTimeline_When" sourceName="When">
+<timelineCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="xr10" name="NativeTimeline_When" xr10:uid="{00000000-0013-0000-FFFF-FFFF01000000}" sourceName="When">
   <pivotTables>
     <pivotTable tabId="8" name="PivotTable5"/>
   </pivotTables>
@@ -7034,13 +7063,13 @@
 </file>
 
 <file path=xl/timelines/timeline1.xml><?xml version="1.0" encoding="utf-8"?>
-<timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <timeline name="When" cache="NativeTimeline_When" caption="When" level="0" selectionLevel="0" scrollPosition="2009-10-27T00:00:00"/>
+<timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <timeline name="When" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="NativeTimeline_When" caption="When" level="0" selectionLevel="0" scrollPosition="2009-10-27T00:00:00"/>
 </timelines>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7284,55 +7313,55 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="20">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Alternate Title" prompt="Any form of a title used as a substitute or additional access point to the title of the described resource." sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Frequency" prompt="The time interval in which new or updated versions of the described resource are issued. i.e.: Monthly, Annually, Semi-Annually, Quarterly" sqref="B6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Subject" prompt="A controlled term that expresses a topic of the intellectual content of the described resource. i.e.: Post-Secondary Enrolment; Demographics; etc." sqref="B10"/>
-    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Required Field" error="This is a required field." promptTitle="Type" prompt="Required - The business design or structure of the described resource which relates to its business purpose." sqref="B19">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Alternate Title" prompt="Any form of a title used as a substitute or additional access point to the title of the described resource." sqref="B3" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Frequency" prompt="The time interval in which new or updated versions of the described resource are issued. i.e.: Monthly, Annually, Semi-Annually, Quarterly" sqref="B6" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Subject" prompt="A controlled term that expresses a topic of the intellectual content of the described resource. i.e.: Post-Secondary Enrolment; Demographics; etc." sqref="B10" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Required Field" error="This is a required field." promptTitle="Type" prompt="Required - The business design or structure of the described resource which relates to its business purpose." sqref="B19" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Required Field" error="This is a required field." promptTitle="Title" prompt="Required - The name given to the described resource and by which the resource is formally known." sqref="B2">
+    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Required Field" error="This is a required field." promptTitle="Title" prompt="Required - The name given to the described resource and by which the resource is formally known." sqref="B2" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Required Field" error="This is a required field." promptTitle="Archive Date" prompt="Required - The date at which the described resource should be identified as an archive copy in the Open Government Portal." sqref="B20">
+    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Required Field" error="This is a required field." promptTitle="Archive Date" prompt="Required - The date at which the described resource should be identified as an archive copy in the Open Government Portal." sqref="B20" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Required Field" error="This is a required field." promptTitle="Category" prompt="Required - The broad subject category that expresses a topic of the content of the described resource." sqref="B9">
+    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Required Field" error="This is a required field." promptTitle="Category" prompt="Required - The broad subject category that expresses a topic of the content of the described resource." sqref="B9" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Required Field" error="This is a required field." promptTitle="Contact" prompt="Required - The organizational contact for users of the Open Government Portal to obtain further information or provide feedback about the described resource or its metadata." sqref="B11">
+    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Required Field" error="This is a required field." promptTitle="Contact" prompt="Required - The organizational contact for users of the Open Government Portal to obtain further information or provide feedback about the described resource or its metadata." sqref="B11" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Required Field" error="This is a required field." promptTitle="Creator" prompt="Required - The department, agency, board, commission or other entity primarily responsible for the creation of the content of the described resource." sqref="B12">
+    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Required Field" error="This is a required field." promptTitle="Creator" prompt="Required - The department, agency, board, commission or other entity primarily responsible for the creation of the content of the described resource." sqref="B12" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Required Field" error="This is a required field." promptTitle="Date Added to Catelogue" prompt="Required - The date and time on which the described resource is made publicly available through the Open Government Portal." sqref="B13">
+    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Required Field" error="This is a required field." promptTitle="Date Added to Catelogue" prompt="Required - The date and time on which the described resource is made publicly available through the Open Government Portal." sqref="B13" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Required Field" error="This is a required field." promptTitle="Extent" prompt="Required - The size or duration of the described resource." sqref="B14">
+    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Required Field" error="This is a required field." promptTitle="Extent" prompt="Required - The size or duration of the described resource." sqref="B14" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Required Field" error="This is a required field." promptTitle="Format" prompt="Required - The computer encoding method used for the described resource." sqref="B15">
+    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Required Field" error="This is a required field." promptTitle="Format" prompt="Required - The computer encoding method used for the described resource." sqref="B15" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Required Field" error="This is a required field." promptTitle="Identifier" prompt="Required - A number or code which uniquely identifies the described resource." sqref="B16">
+    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Required Field" error="This is a required field." promptTitle="Identifier" prompt="Required - A number or code which uniquely identifies the described resource." sqref="B16" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Required Field" error="This is a required field." promptTitle="License" prompt="Required - Reference to the legal document outlining access and usage rights for the described resource." sqref="B17">
+    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Required Field" error="This is a required field." promptTitle="License" prompt="Required - Reference to the legal document outlining access and usage rights for the described resource." sqref="B17" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Required Field" error="This is a required field." promptTitle="Sensitivity" prompt="Required - The Government of Alberta-defined “Unrestricted” security classification required for the described resource to be included in the Open Government Portal." sqref="B18">
+    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Required Field" error="This is a required field." promptTitle="Sensitivity" prompt="Required - The Government of Alberta-defined “Unrestricted” security classification required for the described resource to be included in the Open Government Portal." sqref="B18" xr:uid="{00000000-0002-0000-0000-00000E000000}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Contributor" prompt="A person or organization responsible for making significant contributions to the content of the described resource." sqref="B21"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Language" prompt="The language of the intellectual content of the described resource." sqref="B22"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Publisher" prompt="The department, agency, board, commission or other entity responsible for making the described resource publicly available.  i.e.: Innovation and Advanced Education" sqref="B23"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Audience" prompt="A group of people for whom the described resource is intended or useful." sqref="B24"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Related Resources" prompt="One or more resources that bear a close relationship to the described resource, often being derived from the same source material or being explanatory or supporting resources to the described resource." sqref="B25"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Contributor" prompt="A person or organization responsible for making significant contributions to the content of the described resource." sqref="B21" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Language" prompt="The language of the intellectual content of the described resource." sqref="B22" xr:uid="{00000000-0002-0000-0000-000010000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Publisher" prompt="The department, agency, board, commission or other entity responsible for making the described resource publicly available.  i.e.: Innovation and Advanced Education" sqref="B23" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Audience" prompt="A group of people for whom the described resource is intended or useful." sqref="B24" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Related Resources" prompt="One or more resources that bear a close relationship to the described resource, often being derived from the same source material or being explanatory or supporting resources to the described resource." sqref="B25" xr:uid="{00000000-0002-0000-0000-000013000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1"/>
-    <hyperlink ref="B11" r:id="rId2"/>
-    <hyperlink ref="B25" r:id="rId3"/>
+    <hyperlink ref="B17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B25" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
@@ -7341,7 +7370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C405"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
@@ -7882,14 +7911,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
@@ -7904,7 +7935,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>40</v>
       </c>
       <c r="B1" t="s">
@@ -7942,7 +7973,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="26">
         <v>16803</v>
       </c>
       <c r="D2">
@@ -7950,7 +7981,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="26">
         <v>16893</v>
       </c>
       <c r="D3">
@@ -7958,7 +7989,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="26">
         <v>16984</v>
       </c>
       <c r="D4">
@@ -7966,7 +7997,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="26">
         <v>17076</v>
       </c>
       <c r="D5">
@@ -7974,7 +8005,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="26">
         <v>17168</v>
       </c>
       <c r="D6">
@@ -7982,7 +8013,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="26">
         <v>17258</v>
       </c>
       <c r="D7">
@@ -7990,7 +8021,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="26">
         <v>17349</v>
       </c>
       <c r="D8">
@@ -7998,7 +8029,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="26">
         <v>17441</v>
       </c>
       <c r="D9">
@@ -8006,7 +8037,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="26">
         <v>17533</v>
       </c>
       <c r="D10">
@@ -8014,7 +8045,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="26">
         <v>17624</v>
       </c>
       <c r="D11">
@@ -8022,7 +8053,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="26">
         <v>17715</v>
       </c>
       <c r="D12">
@@ -8030,7 +8061,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="26">
         <v>17807</v>
       </c>
       <c r="D13">
@@ -8038,7 +8069,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="26">
         <v>17899</v>
       </c>
       <c r="D14">
@@ -8046,7 +8077,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="26">
         <v>17989</v>
       </c>
       <c r="D15">
@@ -8054,7 +8085,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="26">
         <v>18080</v>
       </c>
       <c r="D16">
@@ -8062,7 +8093,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="26">
         <v>18172</v>
       </c>
       <c r="D17">
@@ -8070,7 +8101,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="26">
         <v>18264</v>
       </c>
       <c r="D18">
@@ -8078,7 +8109,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="26">
         <v>18354</v>
       </c>
       <c r="D19">
@@ -8086,7 +8117,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="26">
         <v>18445</v>
       </c>
       <c r="D20">
@@ -8094,7 +8125,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+      <c r="A21" s="26">
         <v>18537</v>
       </c>
       <c r="D21">
@@ -8102,7 +8133,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="26">
         <v>18629</v>
       </c>
       <c r="D22">
@@ -8110,7 +8141,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="26">
         <v>18719</v>
       </c>
       <c r="D23">
@@ -8118,7 +8149,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="26">
         <v>18810</v>
       </c>
       <c r="B24">
@@ -8156,7 +8187,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="26">
         <v>18902</v>
       </c>
       <c r="B25">
@@ -8194,7 +8225,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="26">
         <v>18994</v>
       </c>
       <c r="B26">
@@ -8232,7 +8263,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
+      <c r="A27" s="26">
         <v>19085</v>
       </c>
       <c r="B27">
@@ -8270,7 +8301,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="26">
         <v>19176</v>
       </c>
       <c r="B28">
@@ -8308,7 +8339,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
+      <c r="A29" s="26">
         <v>19268</v>
       </c>
       <c r="B29">
@@ -8346,7 +8377,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="26">
         <v>19360</v>
       </c>
       <c r="B30">
@@ -8384,7 +8415,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
+      <c r="A31" s="26">
         <v>19450</v>
       </c>
       <c r="B31">
@@ -8422,7 +8453,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="A32" s="26">
         <v>19541</v>
       </c>
       <c r="B32">
@@ -8460,7 +8491,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="19">
+      <c r="A33" s="26">
         <v>19633</v>
       </c>
       <c r="B33">
@@ -8498,7 +8529,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+      <c r="A34" s="26">
         <v>19725</v>
       </c>
       <c r="B34">
@@ -8536,7 +8567,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="19">
+      <c r="A35" s="26">
         <v>19815</v>
       </c>
       <c r="B35">
@@ -8574,7 +8605,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="19">
+      <c r="A36" s="26">
         <v>19906</v>
       </c>
       <c r="B36">
@@ -8612,7 +8643,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="19">
+      <c r="A37" s="26">
         <v>19998</v>
       </c>
       <c r="B37">
@@ -8650,7 +8681,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="19">
+      <c r="A38" s="26">
         <v>20090</v>
       </c>
       <c r="B38">
@@ -8688,7 +8719,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
+      <c r="A39" s="26">
         <v>20180</v>
       </c>
       <c r="B39">
@@ -8726,7 +8757,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="19">
+      <c r="A40" s="26">
         <v>20271</v>
       </c>
       <c r="B40">
@@ -8764,7 +8795,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="19">
+      <c r="A41" s="26">
         <v>20363</v>
       </c>
       <c r="B41">
@@ -8802,7 +8833,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
+      <c r="A42" s="26">
         <v>20455</v>
       </c>
       <c r="B42">
@@ -8840,7 +8871,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="19">
+      <c r="A43" s="26">
         <v>20546</v>
       </c>
       <c r="B43">
@@ -8878,7 +8909,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="19">
+      <c r="A44" s="26">
         <v>20637</v>
       </c>
       <c r="B44">
@@ -8916,7 +8947,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="19">
+      <c r="A45" s="26">
         <v>20729</v>
       </c>
       <c r="B45">
@@ -8954,7 +8985,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="19">
+      <c r="A46" s="26">
         <v>20821</v>
       </c>
       <c r="B46">
@@ -8992,7 +9023,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="19">
+      <c r="A47" s="26">
         <v>20911</v>
       </c>
       <c r="B47">
@@ -9030,7 +9061,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="19">
+      <c r="A48" s="26">
         <v>21002</v>
       </c>
       <c r="B48">
@@ -9068,7 +9099,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="19">
+      <c r="A49" s="26">
         <v>21094</v>
       </c>
       <c r="B49">
@@ -9106,7 +9137,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="19">
+      <c r="A50" s="26">
         <v>21186</v>
       </c>
       <c r="B50">
@@ -9144,7 +9175,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="19">
+      <c r="A51" s="26">
         <v>21276</v>
       </c>
       <c r="B51">
@@ -9182,7 +9213,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="19">
+      <c r="A52" s="26">
         <v>21367</v>
       </c>
       <c r="B52">
@@ -9220,7 +9251,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="19">
+      <c r="A53" s="26">
         <v>21459</v>
       </c>
       <c r="B53">
@@ -9258,7 +9289,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="19">
+      <c r="A54" s="26">
         <v>21551</v>
       </c>
       <c r="B54">
@@ -9296,7 +9327,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="19">
+      <c r="A55" s="26">
         <v>21641</v>
       </c>
       <c r="B55">
@@ -9334,7 +9365,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="19">
+      <c r="A56" s="26">
         <v>21732</v>
       </c>
       <c r="B56">
@@ -9372,7 +9403,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="19">
+      <c r="A57" s="26">
         <v>21824</v>
       </c>
       <c r="B57">
@@ -9410,7 +9441,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="19">
+      <c r="A58" s="26">
         <v>21916</v>
       </c>
       <c r="B58">
@@ -9448,7 +9479,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="19">
+      <c r="A59" s="26">
         <v>22007</v>
       </c>
       <c r="B59">
@@ -9486,7 +9517,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="19">
+      <c r="A60" s="26">
         <v>22098</v>
       </c>
       <c r="B60">
@@ -9524,7 +9555,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="19">
+      <c r="A61" s="26">
         <v>22190</v>
       </c>
       <c r="B61">
@@ -9562,7 +9593,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="19">
+      <c r="A62" s="26">
         <v>22282</v>
       </c>
       <c r="B62">
@@ -9600,7 +9631,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="19">
+      <c r="A63" s="26">
         <v>22372</v>
       </c>
       <c r="B63">
@@ -9638,7 +9669,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="19">
+      <c r="A64" s="26">
         <v>22463</v>
       </c>
       <c r="B64">
@@ -9676,7 +9707,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="19">
+      <c r="A65" s="26">
         <v>22555</v>
       </c>
       <c r="B65">
@@ -9714,7 +9745,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="19">
+      <c r="A66" s="26">
         <v>22647</v>
       </c>
       <c r="B66">
@@ -9752,7 +9783,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="19">
+      <c r="A67" s="26">
         <v>22737</v>
       </c>
       <c r="B67">
@@ -9790,7 +9821,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="19">
+      <c r="A68" s="26">
         <v>22828</v>
       </c>
       <c r="B68">
@@ -9828,7 +9859,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="19">
+      <c r="A69" s="26">
         <v>22920</v>
       </c>
       <c r="B69">
@@ -9866,7 +9897,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="19">
+      <c r="A70" s="26">
         <v>23012</v>
       </c>
       <c r="B70">
@@ -9904,7 +9935,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="19">
+      <c r="A71" s="26">
         <v>23102</v>
       </c>
       <c r="B71">
@@ -9942,7 +9973,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="19">
+      <c r="A72" s="26">
         <v>23193</v>
       </c>
       <c r="B72">
@@ -9980,7 +10011,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="19">
+      <c r="A73" s="26">
         <v>23285</v>
       </c>
       <c r="B73">
@@ -10018,7 +10049,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="19">
+      <c r="A74" s="26">
         <v>23377</v>
       </c>
       <c r="B74">
@@ -10056,7 +10087,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="19">
+      <c r="A75" s="26">
         <v>23468</v>
       </c>
       <c r="B75">
@@ -10094,7 +10125,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="19">
+      <c r="A76" s="26">
         <v>23559</v>
       </c>
       <c r="B76">
@@ -10132,7 +10163,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="19">
+      <c r="A77" s="26">
         <v>23651</v>
       </c>
       <c r="B77">
@@ -10170,7 +10201,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="19">
+      <c r="A78" s="26">
         <v>23743</v>
       </c>
       <c r="B78">
@@ -10208,7 +10239,7 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="19">
+      <c r="A79" s="26">
         <v>23833</v>
       </c>
       <c r="B79">
@@ -10246,7 +10277,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="19">
+      <c r="A80" s="26">
         <v>23924</v>
       </c>
       <c r="B80">
@@ -10284,7 +10315,7 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="19">
+      <c r="A81" s="26">
         <v>24016</v>
       </c>
       <c r="B81">
@@ -10322,7 +10353,7 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="19">
+      <c r="A82" s="26">
         <v>24108</v>
       </c>
       <c r="B82">
@@ -10360,7 +10391,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="19">
+      <c r="A83" s="26">
         <v>24198</v>
       </c>
       <c r="B83">
@@ -10398,7 +10429,7 @@
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="19">
+      <c r="A84" s="26">
         <v>24289</v>
       </c>
       <c r="B84">
@@ -10436,7 +10467,7 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="19">
+      <c r="A85" s="26">
         <v>24381</v>
       </c>
       <c r="B85">
@@ -10474,7 +10505,7 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="19">
+      <c r="A86" s="26">
         <v>24473</v>
       </c>
       <c r="B86">
@@ -10512,7 +10543,7 @@
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="19">
+      <c r="A87" s="26">
         <v>24563</v>
       </c>
       <c r="B87">
@@ -10550,7 +10581,7 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="19">
+      <c r="A88" s="26">
         <v>24654</v>
       </c>
       <c r="B88">
@@ -10588,7 +10619,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="19">
+      <c r="A89" s="26">
         <v>24746</v>
       </c>
       <c r="B89">
@@ -10626,7 +10657,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="19">
+      <c r="A90" s="26">
         <v>24838</v>
       </c>
       <c r="B90">
@@ -10664,7 +10695,7 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="19">
+      <c r="A91" s="26">
         <v>24929</v>
       </c>
       <c r="B91">
@@ -10702,7 +10733,7 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="19">
+      <c r="A92" s="26">
         <v>25020</v>
       </c>
       <c r="B92">
@@ -10740,7 +10771,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="19">
+      <c r="A93" s="26">
         <v>25112</v>
       </c>
       <c r="B93">
@@ -10778,7 +10809,7 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="19">
+      <c r="A94" s="26">
         <v>25204</v>
       </c>
       <c r="B94">
@@ -10816,7 +10847,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="19">
+      <c r="A95" s="26">
         <v>25294</v>
       </c>
       <c r="B95">
@@ -10854,7 +10885,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="19">
+      <c r="A96" s="26">
         <v>25385</v>
       </c>
       <c r="B96">
@@ -10892,7 +10923,7 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="19">
+      <c r="A97" s="26">
         <v>25477</v>
       </c>
       <c r="B97">
@@ -10930,7 +10961,7 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="19">
+      <c r="A98" s="26">
         <v>25569</v>
       </c>
       <c r="B98">
@@ -10968,7 +10999,7 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="19">
+      <c r="A99" s="26">
         <v>25659</v>
       </c>
       <c r="B99">
@@ -11006,7 +11037,7 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="19">
+      <c r="A100" s="26">
         <v>25750</v>
       </c>
       <c r="B100">
@@ -11044,7 +11075,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="19">
+      <c r="A101" s="26">
         <v>25842</v>
       </c>
       <c r="B101">
@@ -11082,7 +11113,7 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="19">
+      <c r="A102" s="26">
         <v>25934</v>
       </c>
       <c r="B102">
@@ -11120,7 +11151,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="19">
+      <c r="A103" s="26">
         <v>26024</v>
       </c>
       <c r="B103">
@@ -11158,7 +11189,7 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="19">
+      <c r="A104" s="26">
         <v>26115</v>
       </c>
       <c r="B104">
@@ -11196,7 +11227,7 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="19">
+      <c r="A105" s="26">
         <v>26207</v>
       </c>
       <c r="B105">
@@ -11234,7 +11265,7 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="19">
+      <c r="A106" s="26">
         <v>26299</v>
       </c>
       <c r="B106">
@@ -11272,7 +11303,7 @@
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="19">
+      <c r="A107" s="26">
         <v>26390</v>
       </c>
       <c r="B107">
@@ -11310,7 +11341,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="19">
+      <c r="A108" s="26">
         <v>26481</v>
       </c>
       <c r="B108">
@@ -11348,7 +11379,7 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="19">
+      <c r="A109" s="26">
         <v>26573</v>
       </c>
       <c r="B109">
@@ -11386,7 +11417,7 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="19">
+      <c r="A110" s="26">
         <v>26665</v>
       </c>
       <c r="B110">
@@ -11424,7 +11455,7 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="19">
+      <c r="A111" s="26">
         <v>26755</v>
       </c>
       <c r="B111">
@@ -11462,7 +11493,7 @@
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="19">
+      <c r="A112" s="26">
         <v>26846</v>
       </c>
       <c r="B112">
@@ -11500,7 +11531,7 @@
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="19">
+      <c r="A113" s="26">
         <v>26938</v>
       </c>
       <c r="B113">
@@ -11538,7 +11569,7 @@
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="19">
+      <c r="A114" s="26">
         <v>27030</v>
       </c>
       <c r="B114">
@@ -11576,7 +11607,7 @@
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="19">
+      <c r="A115" s="26">
         <v>27120</v>
       </c>
       <c r="B115">
@@ -11614,7 +11645,7 @@
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="19">
+      <c r="A116" s="26">
         <v>27211</v>
       </c>
       <c r="B116">
@@ -11652,7 +11683,7 @@
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="19">
+      <c r="A117" s="26">
         <v>27303</v>
       </c>
       <c r="B117">
@@ -11690,7 +11721,7 @@
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="19">
+      <c r="A118" s="26">
         <v>27395</v>
       </c>
       <c r="B118">
@@ -11728,7 +11759,7 @@
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="19">
+      <c r="A119" s="26">
         <v>27485</v>
       </c>
       <c r="B119">
@@ -11766,7 +11797,7 @@
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="19">
+      <c r="A120" s="26">
         <v>27576</v>
       </c>
       <c r="B120">
@@ -11804,7 +11835,7 @@
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="19">
+      <c r="A121" s="26">
         <v>27668</v>
       </c>
       <c r="B121">
@@ -11842,7 +11873,7 @@
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="19">
+      <c r="A122" s="26">
         <v>27760</v>
       </c>
       <c r="B122">
@@ -11880,7 +11911,7 @@
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="19">
+      <c r="A123" s="26">
         <v>27851</v>
       </c>
       <c r="B123">
@@ -11918,7 +11949,7 @@
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="19">
+      <c r="A124" s="26">
         <v>27942</v>
       </c>
       <c r="B124">
@@ -11956,7 +11987,7 @@
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="19">
+      <c r="A125" s="26">
         <v>28034</v>
       </c>
       <c r="B125">
@@ -11994,7 +12025,7 @@
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="19">
+      <c r="A126" s="26">
         <v>28126</v>
       </c>
       <c r="B126">
@@ -12032,7 +12063,7 @@
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="19">
+      <c r="A127" s="26">
         <v>28216</v>
       </c>
       <c r="B127">
@@ -12070,7 +12101,7 @@
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="19">
+      <c r="A128" s="26">
         <v>28307</v>
       </c>
       <c r="B128">
@@ -12108,7 +12139,7 @@
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="19">
+      <c r="A129" s="26">
         <v>28399</v>
       </c>
       <c r="B129">
@@ -12146,7 +12177,7 @@
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="19">
+      <c r="A130" s="26">
         <v>28491</v>
       </c>
       <c r="B130">
@@ -12184,7 +12215,7 @@
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="19">
+      <c r="A131" s="26">
         <v>28581</v>
       </c>
       <c r="B131">
@@ -12222,7 +12253,7 @@
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="19">
+      <c r="A132" s="26">
         <v>28672</v>
       </c>
       <c r="B132">
@@ -12260,7 +12291,7 @@
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="19">
+      <c r="A133" s="26">
         <v>28764</v>
       </c>
       <c r="B133">
@@ -12298,7 +12329,7 @@
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="19">
+      <c r="A134" s="26">
         <v>28856</v>
       </c>
       <c r="B134">
@@ -12336,7 +12367,7 @@
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="19">
+      <c r="A135" s="26">
         <v>28946</v>
       </c>
       <c r="B135">
@@ -12374,7 +12405,7 @@
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="19">
+      <c r="A136" s="26">
         <v>29037</v>
       </c>
       <c r="B136">
@@ -12412,7 +12443,7 @@
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="19">
+      <c r="A137" s="26">
         <v>29129</v>
       </c>
       <c r="B137">
@@ -12450,7 +12481,7 @@
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="19">
+      <c r="A138" s="26">
         <v>29221</v>
       </c>
       <c r="B138">
@@ -12488,7 +12519,7 @@
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="19">
+      <c r="A139" s="26">
         <v>29312</v>
       </c>
       <c r="B139">
@@ -12526,7 +12557,7 @@
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="19">
+      <c r="A140" s="26">
         <v>29403</v>
       </c>
       <c r="B140">
@@ -12564,7 +12595,7 @@
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="19">
+      <c r="A141" s="26">
         <v>29495</v>
       </c>
       <c r="B141">
@@ -12602,7 +12633,7 @@
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="19">
+      <c r="A142" s="26">
         <v>29587</v>
       </c>
       <c r="B142">
@@ -12640,7 +12671,7 @@
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="19">
+      <c r="A143" s="26">
         <v>29677</v>
       </c>
       <c r="B143">
@@ -12678,7 +12709,7 @@
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="19">
+      <c r="A144" s="26">
         <v>29768</v>
       </c>
       <c r="B144">
@@ -12716,7 +12747,7 @@
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="19">
+      <c r="A145" s="26">
         <v>29860</v>
       </c>
       <c r="B145">
@@ -12754,7 +12785,7 @@
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="19">
+      <c r="A146" s="26">
         <v>29952</v>
       </c>
       <c r="B146">
@@ -12792,7 +12823,7 @@
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="19">
+      <c r="A147" s="26">
         <v>30042</v>
       </c>
       <c r="B147">
@@ -12830,7 +12861,7 @@
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="19">
+      <c r="A148" s="26">
         <v>30133</v>
       </c>
       <c r="B148">
@@ -12868,7 +12899,7 @@
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="19">
+      <c r="A149" s="26">
         <v>30225</v>
       </c>
       <c r="B149">
@@ -12906,7 +12937,7 @@
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="19">
+      <c r="A150" s="26">
         <v>30317</v>
       </c>
       <c r="B150">
@@ -12944,7 +12975,7 @@
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="19">
+      <c r="A151" s="26">
         <v>30407</v>
       </c>
       <c r="B151">
@@ -12982,7 +13013,7 @@
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="19">
+      <c r="A152" s="26">
         <v>30498</v>
       </c>
       <c r="B152">
@@ -13020,7 +13051,7 @@
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="19">
+      <c r="A153" s="26">
         <v>30590</v>
       </c>
       <c r="B153">
@@ -13058,7 +13089,7 @@
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="19">
+      <c r="A154" s="26">
         <v>30682</v>
       </c>
       <c r="B154">
@@ -13096,7 +13127,7 @@
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="19">
+      <c r="A155" s="26">
         <v>30773</v>
       </c>
       <c r="B155">
@@ -13134,7 +13165,7 @@
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="19">
+      <c r="A156" s="26">
         <v>30864</v>
       </c>
       <c r="B156">
@@ -13172,7 +13203,7 @@
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="19">
+      <c r="A157" s="26">
         <v>30956</v>
       </c>
       <c r="B157">
@@ -13210,7 +13241,7 @@
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="19">
+      <c r="A158" s="26">
         <v>31048</v>
       </c>
       <c r="B158">
@@ -13248,7 +13279,7 @@
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159" s="19">
+      <c r="A159" s="26">
         <v>31138</v>
       </c>
       <c r="B159">
@@ -13286,7 +13317,7 @@
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160" s="19">
+      <c r="A160" s="26">
         <v>31229</v>
       </c>
       <c r="B160">
@@ -13324,7 +13355,7 @@
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" s="19">
+      <c r="A161" s="26">
         <v>31321</v>
       </c>
       <c r="B161">
@@ -13362,7 +13393,7 @@
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" s="19">
+      <c r="A162" s="26">
         <v>31413</v>
       </c>
       <c r="B162">
@@ -13400,7 +13431,7 @@
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A163" s="19">
+      <c r="A163" s="26">
         <v>31503</v>
       </c>
       <c r="B163">
@@ -13438,7 +13469,7 @@
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="19">
+      <c r="A164" s="26">
         <v>31594</v>
       </c>
       <c r="B164">
@@ -13476,7 +13507,7 @@
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="19">
+      <c r="A165" s="26">
         <v>31686</v>
       </c>
       <c r="B165">
@@ -13514,7 +13545,7 @@
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="19">
+      <c r="A166" s="26">
         <v>31778</v>
       </c>
       <c r="B166">
@@ -13552,7 +13583,7 @@
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="19">
+      <c r="A167" s="26">
         <v>31868</v>
       </c>
       <c r="B167">
@@ -13590,7 +13621,7 @@
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="19">
+      <c r="A168" s="26">
         <v>31959</v>
       </c>
       <c r="B168">
@@ -13628,7 +13659,7 @@
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="19">
+      <c r="A169" s="26">
         <v>32051</v>
       </c>
       <c r="B169">
@@ -13666,7 +13697,7 @@
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="19">
+      <c r="A170" s="26">
         <v>32143</v>
       </c>
       <c r="B170">
@@ -13704,7 +13735,7 @@
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="19">
+      <c r="A171" s="26">
         <v>32234</v>
       </c>
       <c r="B171">
@@ -13742,7 +13773,7 @@
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="19">
+      <c r="A172" s="26">
         <v>32325</v>
       </c>
       <c r="B172">
@@ -13780,7 +13811,7 @@
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="19">
+      <c r="A173" s="26">
         <v>32417</v>
       </c>
       <c r="B173">
@@ -13818,7 +13849,7 @@
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="19">
+      <c r="A174" s="26">
         <v>32509</v>
       </c>
       <c r="B174">
@@ -13856,7 +13887,7 @@
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="19">
+      <c r="A175" s="26">
         <v>32599</v>
       </c>
       <c r="B175">
@@ -13894,7 +13925,7 @@
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="19">
+      <c r="A176" s="26">
         <v>32690</v>
       </c>
       <c r="B176">
@@ -13932,7 +13963,7 @@
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="19">
+      <c r="A177" s="26">
         <v>32782</v>
       </c>
       <c r="B177">
@@ -13970,7 +14001,7 @@
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="19">
+      <c r="A178" s="26">
         <v>32874</v>
       </c>
       <c r="B178">
@@ -14008,7 +14039,7 @@
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="19">
+      <c r="A179" s="26">
         <v>32964</v>
       </c>
       <c r="B179">
@@ -14046,7 +14077,7 @@
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="19">
+      <c r="A180" s="26">
         <v>33055</v>
       </c>
       <c r="B180">
@@ -14084,7 +14115,7 @@
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="19">
+      <c r="A181" s="26">
         <v>33147</v>
       </c>
       <c r="B181">
@@ -14122,7 +14153,7 @@
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="19">
+      <c r="A182" s="26">
         <v>33239</v>
       </c>
       <c r="B182">
@@ -14160,7 +14191,7 @@
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="19">
+      <c r="A183" s="26">
         <v>33329</v>
       </c>
       <c r="B183">
@@ -14198,7 +14229,7 @@
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="19">
+      <c r="A184" s="26">
         <v>33420</v>
       </c>
       <c r="B184">
@@ -14236,7 +14267,7 @@
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="19">
+      <c r="A185" s="26">
         <v>33512</v>
       </c>
       <c r="B185">
@@ -14274,7 +14305,7 @@
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="19">
+      <c r="A186" s="26">
         <v>33604</v>
       </c>
       <c r="B186">
@@ -14312,7 +14343,7 @@
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="19">
+      <c r="A187" s="26">
         <v>33695</v>
       </c>
       <c r="B187">
@@ -14350,7 +14381,7 @@
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="19">
+      <c r="A188" s="26">
         <v>33786</v>
       </c>
       <c r="B188">
@@ -14388,7 +14419,7 @@
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="19">
+      <c r="A189" s="26">
         <v>33878</v>
       </c>
       <c r="B189">
@@ -14426,7 +14457,7 @@
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="19">
+      <c r="A190" s="26">
         <v>33970</v>
       </c>
       <c r="B190">
@@ -14464,7 +14495,7 @@
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="19">
+      <c r="A191" s="26">
         <v>34060</v>
       </c>
       <c r="B191">
@@ -14502,7 +14533,7 @@
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="19">
+      <c r="A192" s="26">
         <v>34151</v>
       </c>
       <c r="B192">
@@ -14540,7 +14571,7 @@
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="19">
+      <c r="A193" s="26">
         <v>34243</v>
       </c>
       <c r="B193">
@@ -14578,7 +14609,7 @@
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="19">
+      <c r="A194" s="26">
         <v>34335</v>
       </c>
       <c r="B194">
@@ -14616,7 +14647,7 @@
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" s="19">
+      <c r="A195" s="26">
         <v>34425</v>
       </c>
       <c r="B195">
@@ -14654,7 +14685,7 @@
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" s="19">
+      <c r="A196" s="26">
         <v>34516</v>
       </c>
       <c r="B196">
@@ -14692,7 +14723,7 @@
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A197" s="19">
+      <c r="A197" s="26">
         <v>34608</v>
       </c>
       <c r="B197">
@@ -14730,7 +14761,7 @@
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A198" s="19">
+      <c r="A198" s="26">
         <v>34700</v>
       </c>
       <c r="B198">
@@ -14768,7 +14799,7 @@
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A199" s="19">
+      <c r="A199" s="26">
         <v>34790</v>
       </c>
       <c r="B199">
@@ -14806,7 +14837,7 @@
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A200" s="19">
+      <c r="A200" s="26">
         <v>34881</v>
       </c>
       <c r="B200">
@@ -14844,7 +14875,7 @@
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A201" s="19">
+      <c r="A201" s="26">
         <v>34973</v>
       </c>
       <c r="B201">
@@ -14882,7 +14913,7 @@
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A202" s="19">
+      <c r="A202" s="26">
         <v>35065</v>
       </c>
       <c r="B202">
@@ -14920,7 +14951,7 @@
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A203" s="19">
+      <c r="A203" s="26">
         <v>35156</v>
       </c>
       <c r="B203">
@@ -14958,7 +14989,7 @@
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A204" s="19">
+      <c r="A204" s="26">
         <v>35247</v>
       </c>
       <c r="B204">
@@ -14996,7 +15027,7 @@
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A205" s="19">
+      <c r="A205" s="26">
         <v>35339</v>
       </c>
       <c r="B205">
@@ -15034,7 +15065,7 @@
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A206" s="19">
+      <c r="A206" s="26">
         <v>35431</v>
       </c>
       <c r="B206">
@@ -15072,7 +15103,7 @@
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A207" s="19">
+      <c r="A207" s="26">
         <v>35521</v>
       </c>
       <c r="B207">
@@ -15110,7 +15141,7 @@
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A208" s="19">
+      <c r="A208" s="26">
         <v>35612</v>
       </c>
       <c r="B208">
@@ -15148,7 +15179,7 @@
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A209" s="19">
+      <c r="A209" s="26">
         <v>35704</v>
       </c>
       <c r="B209">
@@ -15186,7 +15217,7 @@
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A210" s="19">
+      <c r="A210" s="26">
         <v>35796</v>
       </c>
       <c r="B210">
@@ -15224,7 +15255,7 @@
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A211" s="19">
+      <c r="A211" s="26">
         <v>35886</v>
       </c>
       <c r="B211">
@@ -15262,7 +15293,7 @@
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A212" s="19">
+      <c r="A212" s="26">
         <v>35977</v>
       </c>
       <c r="B212">
@@ -15300,7 +15331,7 @@
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A213" s="19">
+      <c r="A213" s="26">
         <v>36069</v>
       </c>
       <c r="B213">
@@ -15338,7 +15369,7 @@
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A214" s="19">
+      <c r="A214" s="26">
         <v>36161</v>
       </c>
       <c r="B214">
@@ -15376,7 +15407,7 @@
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A215" s="19">
+      <c r="A215" s="26">
         <v>36251</v>
       </c>
       <c r="B215">
@@ -15414,7 +15445,7 @@
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A216" s="19">
+      <c r="A216" s="26">
         <v>36342</v>
       </c>
       <c r="B216">
@@ -15452,7 +15483,7 @@
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A217" s="19">
+      <c r="A217" s="26">
         <v>36434</v>
       </c>
       <c r="B217">
@@ -15490,7 +15521,7 @@
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A218" s="19">
+      <c r="A218" s="26">
         <v>36526</v>
       </c>
       <c r="B218">
@@ -15528,7 +15559,7 @@
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A219" s="19">
+      <c r="A219" s="26">
         <v>36617</v>
       </c>
       <c r="B219">
@@ -15566,7 +15597,7 @@
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A220" s="19">
+      <c r="A220" s="26">
         <v>36708</v>
       </c>
       <c r="B220">
@@ -15604,7 +15635,7 @@
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A221" s="19">
+      <c r="A221" s="26">
         <v>36800</v>
       </c>
       <c r="B221">
@@ -15642,7 +15673,7 @@
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A222" s="19">
+      <c r="A222" s="26">
         <v>36892</v>
       </c>
       <c r="B222">
@@ -15680,7 +15711,7 @@
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A223" s="19">
+      <c r="A223" s="26">
         <v>36982</v>
       </c>
       <c r="B223">
@@ -15718,7 +15749,7 @@
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A224" s="19">
+      <c r="A224" s="26">
         <v>37073</v>
       </c>
       <c r="B224">
@@ -15756,7 +15787,7 @@
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A225" s="19">
+      <c r="A225" s="26">
         <v>37165</v>
       </c>
       <c r="B225">
@@ -15794,7 +15825,7 @@
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A226" s="19">
+      <c r="A226" s="26">
         <v>37257</v>
       </c>
       <c r="B226">
@@ -15832,7 +15863,7 @@
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A227" s="19">
+      <c r="A227" s="26">
         <v>37347</v>
       </c>
       <c r="B227">
@@ -15870,7 +15901,7 @@
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A228" s="19">
+      <c r="A228" s="26">
         <v>37438</v>
       </c>
       <c r="B228">
@@ -15908,7 +15939,7 @@
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A229" s="19">
+      <c r="A229" s="26">
         <v>37530</v>
       </c>
       <c r="B229">
@@ -15946,7 +15977,7 @@
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A230" s="19">
+      <c r="A230" s="26">
         <v>37622</v>
       </c>
       <c r="B230">
@@ -15984,7 +16015,7 @@
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A231" s="19">
+      <c r="A231" s="26">
         <v>37712</v>
       </c>
       <c r="B231">
@@ -16022,7 +16053,7 @@
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A232" s="19">
+      <c r="A232" s="26">
         <v>37803</v>
       </c>
       <c r="B232">
@@ -16060,7 +16091,7 @@
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A233" s="19">
+      <c r="A233" s="26">
         <v>37895</v>
       </c>
       <c r="B233">
@@ -16098,7 +16129,7 @@
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A234" s="19">
+      <c r="A234" s="26">
         <v>37987</v>
       </c>
       <c r="B234">
@@ -16136,7 +16167,7 @@
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A235" s="19">
+      <c r="A235" s="26">
         <v>38078</v>
       </c>
       <c r="B235">
@@ -16174,7 +16205,7 @@
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A236" s="19">
+      <c r="A236" s="26">
         <v>38169</v>
       </c>
       <c r="B236">
@@ -16212,7 +16243,7 @@
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A237" s="19">
+      <c r="A237" s="26">
         <v>38261</v>
       </c>
       <c r="B237">
@@ -16250,7 +16281,7 @@
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A238" s="19">
+      <c r="A238" s="26">
         <v>38353</v>
       </c>
       <c r="B238">
@@ -16288,7 +16319,7 @@
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A239" s="19">
+      <c r="A239" s="26">
         <v>38443</v>
       </c>
       <c r="B239">
@@ -16326,7 +16357,7 @@
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A240" s="19">
+      <c r="A240" s="26">
         <v>38534</v>
       </c>
       <c r="B240">
@@ -16364,7 +16395,7 @@
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A241" s="19">
+      <c r="A241" s="26">
         <v>38626</v>
       </c>
       <c r="B241">
@@ -16402,7 +16433,7 @@
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A242" s="19">
+      <c r="A242" s="26">
         <v>38718</v>
       </c>
       <c r="B242">
@@ -16440,7 +16471,7 @@
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A243" s="19">
+      <c r="A243" s="26">
         <v>38808</v>
       </c>
       <c r="B243">
@@ -16478,7 +16509,7 @@
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A244" s="19">
+      <c r="A244" s="26">
         <v>38899</v>
       </c>
       <c r="B244">
@@ -16516,7 +16547,7 @@
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A245" s="19">
+      <c r="A245" s="26">
         <v>38991</v>
       </c>
       <c r="B245">
@@ -16554,7 +16585,7 @@
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A246" s="19">
+      <c r="A246" s="26">
         <v>39083</v>
       </c>
       <c r="B246">
@@ -16592,7 +16623,7 @@
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A247" s="19">
+      <c r="A247" s="26">
         <v>39173</v>
       </c>
       <c r="B247">
@@ -16630,7 +16661,7 @@
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A248" s="19">
+      <c r="A248" s="26">
         <v>39264</v>
       </c>
       <c r="B248">
@@ -16668,7 +16699,7 @@
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A249" s="19">
+      <c r="A249" s="26">
         <v>39356</v>
       </c>
       <c r="B249">
@@ -16706,7 +16737,7 @@
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A250" s="19">
+      <c r="A250" s="26">
         <v>39448</v>
       </c>
       <c r="B250">
@@ -16744,7 +16775,7 @@
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A251" s="19">
+      <c r="A251" s="26">
         <v>39539</v>
       </c>
       <c r="B251">
@@ -16782,7 +16813,7 @@
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A252" s="19">
+      <c r="A252" s="26">
         <v>39630</v>
       </c>
       <c r="B252">
@@ -16820,7 +16851,7 @@
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A253" s="19">
+      <c r="A253" s="26">
         <v>39722</v>
       </c>
       <c r="B253">
@@ -16858,7 +16889,7 @@
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A254" s="19">
+      <c r="A254" s="26">
         <v>39814</v>
       </c>
       <c r="B254">
@@ -16896,7 +16927,7 @@
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A255" s="19">
+      <c r="A255" s="26">
         <v>39904</v>
       </c>
       <c r="B255">
@@ -16934,7 +16965,7 @@
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A256" s="19">
+      <c r="A256" s="26">
         <v>39995</v>
       </c>
       <c r="B256">
@@ -16972,7 +17003,7 @@
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A257" s="19">
+      <c r="A257" s="26">
         <v>40087</v>
       </c>
       <c r="B257">
@@ -17010,7 +17041,7 @@
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A258" s="19">
+      <c r="A258" s="26">
         <v>40179</v>
       </c>
       <c r="B258">
@@ -17048,7 +17079,7 @@
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A259" s="19">
+      <c r="A259" s="26">
         <v>40269</v>
       </c>
       <c r="B259">
@@ -17086,7 +17117,7 @@
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A260" s="19">
+      <c r="A260" s="26">
         <v>40360</v>
       </c>
       <c r="B260">
@@ -17124,7 +17155,7 @@
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A261" s="19">
+      <c r="A261" s="26">
         <v>40452</v>
       </c>
       <c r="B261">
@@ -17162,7 +17193,7 @@
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A262" s="19">
+      <c r="A262" s="26">
         <v>40544</v>
       </c>
       <c r="B262">
@@ -17200,7 +17231,7 @@
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A263" s="19">
+      <c r="A263" s="26">
         <v>40634</v>
       </c>
       <c r="B263">
@@ -17238,7 +17269,7 @@
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A264" s="19">
+      <c r="A264" s="26">
         <v>40725</v>
       </c>
       <c r="B264">
@@ -17276,7 +17307,7 @@
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A265" s="19">
+      <c r="A265" s="26">
         <v>40817</v>
       </c>
       <c r="B265">
@@ -17314,7 +17345,7 @@
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A266" s="19">
+      <c r="A266" s="26">
         <v>40909</v>
       </c>
       <c r="B266">
@@ -17352,7 +17383,7 @@
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A267" s="19">
+      <c r="A267" s="26">
         <v>41000</v>
       </c>
       <c r="B267">
@@ -17390,7 +17421,7 @@
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A268" s="19">
+      <c r="A268" s="26">
         <v>41091</v>
       </c>
       <c r="B268">
@@ -17428,7 +17459,7 @@
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A269" s="19">
+      <c r="A269" s="26">
         <v>41183</v>
       </c>
       <c r="B269">
@@ -17466,7 +17497,7 @@
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A270" s="19">
+      <c r="A270" s="26">
         <v>41275</v>
       </c>
       <c r="B270">
@@ -17504,7 +17535,7 @@
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A271" s="19">
+      <c r="A271" s="26">
         <v>41365</v>
       </c>
       <c r="B271">
@@ -17542,7 +17573,7 @@
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A272" s="19">
+      <c r="A272" s="26">
         <v>41456</v>
       </c>
       <c r="B272">
@@ -17580,7 +17611,7 @@
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A273" s="19">
+      <c r="A273" s="26">
         <v>41548</v>
       </c>
       <c r="B273">
@@ -17618,7 +17649,7 @@
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A274" s="19">
+      <c r="A274" s="26">
         <v>41640</v>
       </c>
       <c r="B274">
@@ -17656,7 +17687,7 @@
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A275" s="19">
+      <c r="A275" s="26">
         <v>41730</v>
       </c>
       <c r="B275">
@@ -17694,7 +17725,7 @@
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A276" s="19">
+      <c r="A276" s="26">
         <v>41821</v>
       </c>
       <c r="B276">
@@ -17732,7 +17763,7 @@
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A277" s="19">
+      <c r="A277" s="26">
         <v>41913</v>
       </c>
       <c r="B277">
@@ -17770,7 +17801,7 @@
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A278" s="19">
+      <c r="A278" s="26">
         <v>42005</v>
       </c>
       <c r="B278">
@@ -17808,7 +17839,7 @@
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A279" s="19">
+      <c r="A279" s="26">
         <v>42095</v>
       </c>
       <c r="B279">
@@ -17846,7 +17877,7 @@
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A280" s="19">
+      <c r="A280" s="26">
         <v>42186</v>
       </c>
       <c r="B280">
@@ -17889,7 +17920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B281"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -18877,21 +18908,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010099CA775571ADB5469579D77C0A95D0E4" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ff2d6e1e0f0a601ad8921ccb1f9fcb5d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc5de201-5997-4145-9e9c-60ec574d06c2" xmlns:ns3="68489063-d37f-4f7d-9658-af2f0f676527" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02ecbd69df41fa9ed736143f23e5465" ns2:_="" ns3:_="">
     <xsd:import namespace="cc5de201-5997-4145-9e9c-60ec574d06c2"/>
@@ -19062,7 +19078,49 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10880B01-A88D-4627-80B0-3EC58AE46EF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cc5de201-5997-4145-9e9c-60ec574d06c2"/>
+    <ds:schemaRef ds:uri="68489063-d37f-4f7d-9658-af2f0f676527"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6D3227B-5415-464F-9788-C8F7397D632F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81773334-712B-4902-9CD7-006F932FC510}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -19076,16 +19134,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6D3227B-5415-464F-9788-C8F7397D632F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10880B01-A88D-4627-80B0-3EC58AE46EF9}"/>
 </file>